--- a/src/main/webapp/WEB-INF/template/MAU_KIEM_TRA_BAO_GIA.xlsx
+++ b/src/main/webapp/WEB-INF/template/MAU_KIEM_TRA_BAO_GIA.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">CTR!$A$1:$H$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">KHACH!$A$1:$J$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">KHACH!$A$1:$K$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">KHACH_1!$A$1:$K$14</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -227,12 +227,15 @@
   <si>
     <t>TIẾN ĐỘ</t>
   </si>
+  <si>
+    <t>HỦY BG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -347,6 +350,24 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -457,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -573,18 +594,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -634,22 +643,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -668,12 +665,69 @@
     <xf numFmtId="3" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -712,24 +766,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,13 +788,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>64168</xdr:rowOff>
@@ -813,13 +849,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>149893</xdr:rowOff>
@@ -874,13 +910,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>64168</xdr:rowOff>
@@ -935,13 +971,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>293087</xdr:rowOff>
@@ -996,13 +1032,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1057,13 +1093,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1118,13 +1154,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1179,13 +1215,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1240,13 +1276,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1301,13 +1337,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1362,13 +1398,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1423,13 +1459,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -3299,10 +3335,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3317,177 +3353,191 @@
     <col min="8" max="8" width="16.42578125" style="27" customWidth="1"/>
     <col min="9" max="9" width="14.140625" style="27" customWidth="1"/>
     <col min="10" max="10" width="16" style="9" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="84"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="105" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="85"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="85"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="64"/>
+      <c r="B4" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="101" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="85"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="64"/>
+      <c r="B5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
-      <c r="B6" s="101" t="s">
+      <c r="C5" s="79"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="85"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="64"/>
+      <c r="B6" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="79"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="85"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="104"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
       <c r="F7" s="15"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="55"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41"/>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="104"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="41"/>
-      <c r="E8" s="68"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="15"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="55"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41"/>
       <c r="B9" s="39"/>
-      <c r="C9" s="81"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="41"/>
-      <c r="E9" s="68"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="15"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="82" t="s">
+      <c r="I9" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="80"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="83" t="s">
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="85" t="s">
+      <c r="F10" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="85" t="s">
+      <c r="G10" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="85" t="s">
+      <c r="H10" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="85" t="s">
+      <c r="I10" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="83" t="s">
+      <c r="J10" s="75" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
-    </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="92"/>
+    </row>
+    <row r="12" spans="1:11" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -3498,8 +3548,9 @@
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="33"/>
-    </row>
-    <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="1"/>
@@ -3507,7 +3558,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="10"/>
@@ -3517,7 +3568,7 @@
       </c>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -3530,7 +3581,7 @@
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
     </row>
-    <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -3541,7 +3592,7 @@
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -3552,7 +3603,7 @@
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="1:10" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3563,8 +3614,9 @@
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="33"/>
-    </row>
-    <row r="19" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="33"/>
+    </row>
+    <row r="19" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -3575,18 +3627,19 @@
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="33"/>
-    </row>
-    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="33"/>
+    </row>
+    <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F20" s="21"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
     </row>
-    <row r="21" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="22"/>
     </row>
   </sheetData>
@@ -3596,10 +3649,10 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="10" max="1048575" man="1"/>
+    <brk id="11" max="1048575" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3610,7 +3663,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:J5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3633,13 +3686,13 @@
       <c r="D1" s="9"/>
       <c r="E1" s="42"/>
       <c r="F1" s="26"/>
-      <c r="G1" s="91">
+      <c r="G1" s="102">
         <v>1</v>
       </c>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="71"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="67"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
@@ -3648,13 +3701,13 @@
       <c r="D2" s="9"/>
       <c r="E2" s="42"/>
       <c r="F2" s="26"/>
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="72"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
@@ -3663,75 +3716,75 @@
       <c r="D3" s="9"/>
       <c r="E3" s="42"/>
       <c r="F3" s="26"/>
-      <c r="G3" s="92" t="s">
+      <c r="G3" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="72"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="67"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="63"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="68"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="64"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="69"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="65"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39"/>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="89" t="s">
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="70"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="66"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41"/>
@@ -3793,35 +3846,35 @@
       <c r="J10" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="75"/>
+      <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="75"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="70"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
       <c r="J12" s="32"/>
-      <c r="K12" s="76"/>
+      <c r="K12" s="71"/>
     </row>
     <row r="13" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -3999,101 +4052,101 @@
   <sheetData>
     <row r="5" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="52" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H7" s="56" t="s">
+      <c r="H7" s="52" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H8" s="56"/>
+      <c r="H8" s="52"/>
     </row>
     <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
     </row>
     <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="36"/>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="100" t="s">
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="100"/>
+      <c r="H12" s="111"/>
     </row>
     <row r="13" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
     </row>
     <row r="14" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="66"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="66"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="62"/>
     </row>
     <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
@@ -4103,7 +4156,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="55" t="s">
+      <c r="H16" s="51" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4134,15 +4187,15 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="94" t="s">
+      <c r="A18" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
       <c r="H18" s="46"/>
     </row>
     <row r="19" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4156,38 +4209,38 @@
       <c r="H19" s="50"/>
     </row>
     <row r="20" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="60"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="56"/>
     </row>
     <row r="21" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="60"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="56"/>
     </row>
     <row r="22" spans="1:8" s="31" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="60"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="56"/>
     </row>
     <row r="23" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -4268,9 +4321,9 @@
       <c r="A31"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
       <c r="G31" s="25"/>
       <c r="H31" s="35"/>
     </row>

--- a/src/main/webapp/WEB-INF/template/MAU_KIEM_TRA_BAO_GIA.xlsx
+++ b/src/main/webapp/WEB-INF/template/MAU_KIEM_TRA_BAO_GIA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KHACH" sheetId="2" r:id="rId1"/>
@@ -401,25 +401,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,11 +461,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -525,9 +536,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -543,7 +551,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,9 +561,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -570,16 +574,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -656,13 +660,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -689,38 +693,54 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -734,7 +754,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -743,16 +763,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3337,8 +3357,8 @@
   </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3349,193 +3369,193 @@
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="13" style="27" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="13" style="26" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="26" customWidth="1"/>
     <col min="10" max="10" width="16" style="9" customWidth="1"/>
     <col min="11" max="11" width="4.7109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="84"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="85"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="82"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="85"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="82"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="85"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="82"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="78" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="85"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="82"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="78" t="s">
+      <c r="A6" s="61"/>
+      <c r="B6" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="85"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="82"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="81"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
       <c r="F7" s="15"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
-      <c r="B8" s="80" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="64"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="15"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="64"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="61"/>
       <c r="F9" s="15"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="74" t="s">
+      <c r="I9" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="E10" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="77" t="s">
+      <c r="F10" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="77" t="s">
+      <c r="G10" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="77" t="s">
+      <c r="H10" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="77" t="s">
+      <c r="I10" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="75" t="s">
+      <c r="J10" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="76" t="s">
+      <c r="K10" s="73" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="92"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="99"/>
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -3544,11 +3564,11 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -3577,9 +3597,9 @@
         <v>0</v>
       </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -3588,9 +3608,9 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -3599,9 +3619,9 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:11" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -3610,11 +3630,11 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -3623,17 +3643,17 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F20" s="21"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
     </row>
     <row r="21" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3662,8 +3682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3673,9 +3693,9 @@
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="27" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.28515625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="13" style="26" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.28515625" style="26" customWidth="1"/>
     <col min="10" max="11" width="13.85546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3684,128 +3704,128 @@
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="102">
+      <c r="E1" s="39"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="105">
         <v>1</v>
       </c>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="67"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="64"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="103" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="68"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="103" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="68"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="63"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="64"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="65"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="62"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="99" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="100" t="s">
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="66"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="14"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="40"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="15"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -3816,65 +3836,65 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="70"/>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="86"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="70"/>
+      <c r="K10" s="67"/>
+    </row>
+    <row r="11" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="83"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="101" t="s">
+      <c r="A12" s="91"/>
+      <c r="B12" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="71"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="68"/>
     </row>
     <row r="13" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -3884,19 +3904,19 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-    </row>
-    <row r="14" spans="1:11" s="31" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:11" s="30" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
@@ -3910,16 +3930,16 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="B16" s="38"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="8"/>
       <c r="D16" s="6"/>
       <c r="E16" s="18"/>
@@ -3941,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="18"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -3952,10 +3972,10 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -3963,10 +3983,10 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:11" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -3974,12 +3994,12 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -3987,19 +4007,19 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
     </row>
     <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E23" s="21"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4045,108 +4065,108 @@
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="27" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="13" style="26" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="49" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="49" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H8" s="52"/>
+      <c r="H8" s="49"/>
     </row>
     <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
     </row>
     <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
-      <c r="B12" s="109" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="111" t="s">
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="111"/>
+      <c r="H12" s="114"/>
     </row>
     <row r="13" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
     </row>
     <row r="14" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="62"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="62"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="59"/>
     </row>
     <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
@@ -4156,91 +4176,91 @@
       <c r="E16" s="15"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="51" t="s">
+      <c r="H16" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="40" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="46"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="19" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="50"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="47"/>
     </row>
     <row r="20" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
     </row>
     <row r="21" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="56"/>
-    </row>
-    <row r="22" spans="1:8" s="31" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="57" t="s">
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+    </row>
+    <row r="22" spans="1:8" s="30" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="56"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="53"/>
     </row>
     <row r="23" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -4248,9 +4268,9 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="35"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="33"/>
     </row>
     <row r="24" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -4276,8 +4296,8 @@
         <v>0</v>
       </c>
       <c r="E26" s="18"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -4285,8 +4305,8 @@
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
@@ -4294,8 +4314,8 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:8" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
@@ -4303,9 +4323,9 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="35"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -4313,24 +4333,24 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="35"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="35"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E32" s="21"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="5:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="5:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/main/webapp/WEB-INF/template/MAU_KIEM_TRA_BAO_GIA.xlsx
+++ b/src/main/webapp/WEB-INF/template/MAU_KIEM_TRA_BAO_GIA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="KHACH" sheetId="2" r:id="rId1"/>
@@ -189,9 +189,6 @@
     <t>SĐT</t>
   </si>
   <si>
-    <t>NHÂN VIÊN</t>
-  </si>
-  <si>
     <t>NGÀY BG</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>HỦY BG</t>
+  </si>
+  <si>
+    <t>NV</t>
   </si>
 </sst>
 </file>
@@ -3357,17 +3357,17 @@
   </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="20" customWidth="1"/>
     <col min="7" max="7" width="13" style="26" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" style="26" customWidth="1"/>
@@ -3378,7 +3378,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
@@ -3422,7 +3422,7 @@
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="61"/>
       <c r="B4" s="79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="80"/>
       <c r="D4" s="61"/>
@@ -3437,7 +3437,7 @@
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="61"/>
       <c r="B5" s="75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="76"/>
       <c r="D5" s="61"/>
@@ -3452,7 +3452,7 @@
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
       <c r="B6" s="75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="76"/>
       <c r="D6" s="61"/>
@@ -3467,7 +3467,7 @@
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="78"/>
       <c r="D7" s="2"/>
@@ -3482,7 +3482,7 @@
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38"/>
       <c r="B8" s="77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="38"/>
@@ -3504,7 +3504,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C10" s="72" t="s">
         <v>33</v>
@@ -3529,19 +3529,19 @@
         <v>36</v>
       </c>
       <c r="G10" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="74" t="s">
+      <c r="J10" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="73" t="s">
         <v>49</v>
-      </c>
-      <c r="I10" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="73" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3682,14 +3682,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" style="20" bestFit="1" customWidth="1"/>
@@ -3840,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C10" s="88" t="s">
         <v>33</v>
@@ -3855,16 +3855,16 @@
         <v>36</v>
       </c>
       <c r="G10" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="90" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="90" t="s">
+      <c r="J10" s="88" t="s">
         <v>39</v>
-      </c>
-      <c r="J10" s="88" t="s">
-        <v>40</v>
       </c>
       <c r="K10" s="67"/>
     </row>
